--- a/dokumentacia.xlsx
+++ b/dokumentacia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dominika\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C9A69CC-31B2-403E-93E0-03C92AD07B58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AAA0FE2-AD79-4D2E-ADBB-28A6A8D9F847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{497A342A-1738-4FE2-8E0A-D161251A8006}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
   <si>
     <t>Dokumentacia k testovaniu stranky https://www.heureka.sk</t>
   </si>
@@ -168,13 +168,28 @@
   </si>
   <si>
     <t>test prejde.</t>
+  </si>
+  <si>
+    <t>Testovanie v programe pycharm</t>
+  </si>
+  <si>
+    <t>otvor pycharm</t>
+  </si>
+  <si>
+    <t>Naistaluj si requirements.txt  cez pip install -r requirements.txt</t>
+  </si>
+  <si>
+    <t>naistaluje zvolene podmienky</t>
+  </si>
+  <si>
+    <t>Spusti Test case</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,6 +202,15 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -214,13 +238,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -246,13 +277,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>548640</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1309716</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>178006</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -290,13 +321,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>426720</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>38718</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>12660</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -630,301 +661,331 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4D9B051-C1B4-4ECF-BD53-F2BA4849F08F}">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.21875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="16.21875" style="1" customWidth="1"/>
     <col min="2" max="2" width="80.44140625" customWidth="1"/>
     <col min="3" max="3" width="41.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="B5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
         <v>5</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
         <v>2</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B11" t="s">
         <v>7</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
         <v>3</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B12" t="s">
         <v>10</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
         <v>4</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B13" t="s">
         <v>12</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
         <v>5</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B14" t="s">
         <v>14</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
         <v>6</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B15" t="s">
         <v>16</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
         <v>7</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B16" t="s">
         <v>18</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
         <v>8</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B17" t="s">
         <v>20</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
         <v>9</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B18" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
         <v>10</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B19" t="s">
         <v>16</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
         <v>11</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B20" t="s">
         <v>18</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C20" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
         <v>12</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B21" t="s">
         <v>20</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C21" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
         <v>13</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B22" t="s">
         <v>24</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C22" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
         <v>14</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B23" t="s">
         <v>16</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C23" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
         <v>15</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B24" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C24" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
         <v>16</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B25" t="s">
         <v>27</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C25" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
         <v>17</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B26" t="s">
         <v>29</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C26" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
         <v>18</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B27" t="s">
         <v>31</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C27" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
         <v>19</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B28" t="s">
         <v>33</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C28" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
         <v>20</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B29" t="s">
         <v>35</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C29" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
         <v>21</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B30" t="s">
         <v>37</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C30" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
         <v>22</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B31" t="s">
         <v>39</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C31" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
         <v>23</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B32" t="s">
         <v>41</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C32" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
         <v>25</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B34" t="s">
         <v>43</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C34" t="s">
         <v>44</v>
       </c>
     </row>
